--- a/sydney-postcode.xlsx
+++ b/sydney-postcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cicr9\Documents\postcode-search\postcode-scrab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA17CF5-44C2-4995-B8F3-46DCF6295CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A3A9AC-6A8C-451F-A30D-AA673783B41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{355E7550-6D32-4DB5-86A6-CDECE5A5A77B}"/>
   </bookViews>
@@ -417,7 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD3723E-2884-4E19-B2CB-06615A84D4C8}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D344"/>
     </sheetView>
   </sheetViews>
